--- a/biology/Zoologie/Bdeogale_nigripes/Bdeogale_nigripes.xlsx
+++ b/biology/Zoologie/Bdeogale_nigripes/Bdeogale_nigripes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mangouste à pattes noires (Bdeogale nigripes) est une espèce de mangouste décrite par Jacques Pucheran en 1855. Elle fait partie du genre Bdeogale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mangouste à pattes noires est grande et puissante, elle a une tête massive et un nez assez large. Elle a de petits yeux, de petites oreilles arrondies et des pattes robustes. Elle a les pattes postérieures un peu plus longue que les pattes antérieures avec 4 doigts, en effet, elle n'a ni de pouce ni de gros orteil. Elle a des griffes puissantes de la même longueur. Elle a une mâchoire puissante muni de 40 dents. Elle est recouverte d'un pelage court et dense, les poils de sa queue sont assez long. Elle a la tête et la gorge gris blanc et elle a le reste du dessus gris brunâtre clair à gris blanc finement moucheté, elle a le haut de la poitrine jusqu'au début du ventre et la face interne des pattes brun noir et le bas du ventre et la queue gris blanc à blanc.
 </t>
@@ -542,7 +556,9 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur: 55 à 65 cm debout (sans la queue) Queue: 35 à 40 cm Envergure: 20 cm Poids: DD, données insuffisante
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fôrets pluviales du Nigeria (à l'Est de la rivière Cross) jusqu'au Nord Est du Zaïre et au Nord de l'Angola. Pour (jacksoni) Sud Ouest du Kenya
 </t>
@@ -604,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fôrets pluviales, en montagnes jusqu'à 2 000 m. Pour dormir ils empruntent un terrier inutilisé.
 </t>
@@ -635,7 +655,9 @@
           <t>Mœurs sociales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont soit solitaires, soit en couple.
 </t>
@@ -666,7 +688,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont nocturne.
 </t>
@@ -697,7 +721,9 @@
           <t>Cris</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme presque toutes les mangoustes, la mangouste à pattes noires pousse des aboiements.
 </t>
@@ -728,7 +754,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mange de petits animaux et des fruits.
 </t>
@@ -759,7 +787,9 @@
           <t>Maturité sexuelle</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">À 6 mois. Mais en général 1 petit par portée. 3 portée chaque ans. Temps de gestation inconnu.
 </t>
@@ -790,7 +820,9 @@
           <t>Longévité</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">11 ans en captivité. DD, données insuffisante en nature.
 </t>
